--- a/Karten/2021_2-3-1.xlsx
+++ b/Karten/2021_2-3-1.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2021_2-3-1" sheetId="1" r:id="rId1"/>
-    <sheet name="2021_Rohdaten" sheetId="3" r:id="rId2"/>
-    <sheet name="CSV_Vorbereitung" sheetId="2" r:id="rId3"/>
-    <sheet name="2021_2-3-1_CSV_Export" sheetId="4" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="5" r:id="rId2"/>
+    <sheet name="2021_Rohdaten" sheetId="3" r:id="rId3"/>
+    <sheet name="CSV_Vorbereitung" sheetId="2" r:id="rId4"/>
+    <sheet name="2021_2-3-1_CSV_Export" sheetId="4" r:id="rId5"/>
+    <sheet name="2021_2-3-2_CSV_Export" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3579" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3584" uniqueCount="190">
   <si>
     <t>Indikator 2.3.1: Einbürgerungen in Niedersachsen</t>
   </si>
@@ -622,7 +624,7 @@
     <numFmt numFmtId="164" formatCode="###\ ##0"/>
     <numFmt numFmtId="165" formatCode="\+###\ ##0;\-###\ ##0;###\ ##0"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -821,6 +823,10 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="NDSFrutiger 45 Light"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1360,7 +1366,7 @@
     <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyFont="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1456,6 +1462,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="49" fontId="28" fillId="33" borderId="17" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="34" borderId="17" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="29" fillId="34" borderId="17" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="35" borderId="17" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="29" fillId="35" borderId="17" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1477,35 +1495,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="22" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="23" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="21" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="19" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="28" fillId="33" borderId="18" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="33" borderId="20" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="17" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="28" fillId="33" borderId="19" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="34" borderId="17" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="29" fillId="34" borderId="17" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="28" fillId="33" borderId="21" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="35" borderId="17" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="29" fillId="35" borderId="17" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="28" fillId="33" borderId="23" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="33" borderId="22" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3021,8 +3030,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B1:X69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" topLeftCell="K1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3132,38 +3141,38 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="2:24" ht="8.25" customHeight="1">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="42"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="48"/>
     </row>
     <row r="8" spans="2:24" ht="30.75" customHeight="1">
-      <c r="B8" s="37"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="12">
         <v>2005</v>
       </c>
@@ -3226,30 +3235,30 @@
       </c>
     </row>
     <row r="9" spans="2:24" ht="8.25" customHeight="1">
-      <c r="B9" s="38"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="42"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="48"/>
     </row>
     <row r="10" spans="2:24" ht="8.25" customHeight="1">
       <c r="B10" s="17" t="s">
@@ -7239,6 +7248,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle5"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:E66"/>
   <sheetViews>
@@ -7252,108 +7274,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="43"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" s="48"/>
-      <c r="C11" s="50" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="37" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" s="46"/>
-      <c r="C12" s="50" t="s">
+      <c r="B12" s="51"/>
+      <c r="C12" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="37" t="s">
         <v>81</v>
       </c>
     </row>
@@ -7361,16 +7383,16 @@
       <c r="A13">
         <v>0</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="39">
         <v>10419</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="39">
         <v>5372</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="39">
         <v>5047</v>
       </c>
     </row>
@@ -7378,16 +7400,16 @@
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="41">
         <v>2053</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="41">
         <v>1029</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="41">
         <v>1024</v>
       </c>
     </row>
@@ -7395,16 +7417,16 @@
       <c r="A15" s="18">
         <v>101</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="39">
         <v>469</v>
       </c>
-      <c r="D15" s="52">
+      <c r="D15" s="39">
         <v>226</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="39">
         <v>243</v>
       </c>
     </row>
@@ -7412,16 +7434,16 @@
       <c r="A16" s="18">
         <v>102</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="41">
         <v>163</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="41">
         <v>94</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="41">
         <v>69</v>
       </c>
     </row>
@@ -7429,16 +7451,16 @@
       <c r="A17" s="18">
         <v>103</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="39">
         <v>283</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D17" s="39">
         <v>145</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="39">
         <v>138</v>
       </c>
     </row>
@@ -7446,16 +7468,16 @@
       <c r="A18" s="18">
         <v>151</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="41">
         <v>119</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="41">
         <v>56</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="41">
         <v>63</v>
       </c>
     </row>
@@ -7463,16 +7485,16 @@
       <c r="A19" s="18">
         <v>153</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="39">
         <v>113</v>
       </c>
-      <c r="D19" s="52">
+      <c r="D19" s="39">
         <v>58</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19" s="39">
         <v>55</v>
       </c>
     </row>
@@ -7480,16 +7502,16 @@
       <c r="A20" s="18">
         <v>154</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="54">
+      <c r="C20" s="41">
         <v>78</v>
       </c>
-      <c r="D20" s="54">
+      <c r="D20" s="41">
         <v>40</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="41">
         <v>38</v>
       </c>
     </row>
@@ -7497,16 +7519,16 @@
       <c r="A21" s="18">
         <v>155</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="39">
         <v>97</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="39">
         <v>48</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="39">
         <v>49</v>
       </c>
     </row>
@@ -7514,16 +7536,16 @@
       <c r="A22" s="18">
         <v>157</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="41">
         <v>222</v>
       </c>
-      <c r="D22" s="54">
+      <c r="D22" s="41">
         <v>123</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="41">
         <v>99</v>
       </c>
     </row>
@@ -7531,16 +7553,16 @@
       <c r="A23" s="18">
         <v>158</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="52">
+      <c r="C23" s="39">
         <v>138</v>
       </c>
-      <c r="D23" s="52">
+      <c r="D23" s="39">
         <v>69</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="39">
         <v>69</v>
       </c>
     </row>
@@ -7548,16 +7570,16 @@
       <c r="A24" s="18">
         <v>159</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="41">
         <v>371</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24" s="41">
         <v>170</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24" s="41">
         <v>201</v>
       </c>
     </row>
@@ -7565,16 +7587,16 @@
       <c r="A25" s="34">
         <v>2</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="52">
+      <c r="C25" s="39">
         <v>3196</v>
       </c>
-      <c r="D25" s="52">
+      <c r="D25" s="39">
         <v>1668</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="39">
         <v>1528</v>
       </c>
     </row>
@@ -7582,16 +7604,16 @@
       <c r="A26" s="18">
         <v>241</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26" s="41">
         <v>1929</v>
       </c>
-      <c r="D26" s="54">
+      <c r="D26" s="41">
         <v>989</v>
       </c>
-      <c r="E26" s="54">
+      <c r="E26" s="41">
         <v>940</v>
       </c>
     </row>
@@ -7599,16 +7621,16 @@
       <c r="A27" s="18">
         <v>241001</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="39">
         <v>1036</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="39">
         <v>535</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="39">
         <v>501</v>
       </c>
     </row>
@@ -7616,18 +7638,18 @@
       <c r="A28" s="18">
         <v>241999</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C28" s="39">
         <f>C26-C27</f>
         <v>893</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="39">
         <f t="shared" ref="D28:E28" si="0">D26-D27</f>
         <v>454</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="39">
         <f t="shared" si="0"/>
         <v>439</v>
       </c>
@@ -7636,16 +7658,16 @@
       <c r="A29" s="18">
         <v>251</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="54">
+      <c r="C29" s="41">
         <v>236</v>
       </c>
-      <c r="D29" s="54">
+      <c r="D29" s="41">
         <v>111</v>
       </c>
-      <c r="E29" s="54">
+      <c r="E29" s="41">
         <v>125</v>
       </c>
     </row>
@@ -7653,16 +7675,16 @@
       <c r="A30" s="18">
         <v>252</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="52">
+      <c r="C30" s="39">
         <v>177</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="39">
         <v>104</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E30" s="39">
         <v>73</v>
       </c>
     </row>
@@ -7670,16 +7692,16 @@
       <c r="A31" s="18">
         <v>254</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C31" s="41">
         <v>439</v>
       </c>
-      <c r="D31" s="54">
+      <c r="D31" s="41">
         <v>239</v>
       </c>
-      <c r="E31" s="54">
+      <c r="E31" s="41">
         <v>200</v>
       </c>
     </row>
@@ -7687,16 +7709,16 @@
       <c r="A32" s="18">
         <v>255</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="52">
+      <c r="C32" s="39">
         <v>62</v>
       </c>
-      <c r="D32" s="52">
+      <c r="D32" s="39">
         <v>38</v>
       </c>
-      <c r="E32" s="52">
+      <c r="E32" s="39">
         <v>24</v>
       </c>
     </row>
@@ -7704,16 +7726,16 @@
       <c r="A33" s="18">
         <v>256</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="54">
+      <c r="C33" s="41">
         <v>139</v>
       </c>
-      <c r="D33" s="54">
+      <c r="D33" s="41">
         <v>73</v>
       </c>
-      <c r="E33" s="54">
+      <c r="E33" s="41">
         <v>66</v>
       </c>
     </row>
@@ -7721,16 +7743,16 @@
       <c r="A34" s="18">
         <v>257</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="52">
+      <c r="C34" s="39">
         <v>214</v>
       </c>
-      <c r="D34" s="52">
+      <c r="D34" s="39">
         <v>114</v>
       </c>
-      <c r="E34" s="52">
+      <c r="E34" s="39">
         <v>100</v>
       </c>
     </row>
@@ -7738,16 +7760,16 @@
       <c r="A35" s="34">
         <v>3</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="54">
+      <c r="C35" s="41">
         <v>2118</v>
       </c>
-      <c r="D35" s="54">
+      <c r="D35" s="41">
         <v>1081</v>
       </c>
-      <c r="E35" s="54">
+      <c r="E35" s="41">
         <v>1037</v>
       </c>
     </row>
@@ -7755,16 +7777,16 @@
       <c r="A36" s="18">
         <v>351</v>
       </c>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="52">
+      <c r="C36" s="39">
         <v>175</v>
       </c>
-      <c r="D36" s="52">
+      <c r="D36" s="39">
         <v>85</v>
       </c>
-      <c r="E36" s="52">
+      <c r="E36" s="39">
         <v>90</v>
       </c>
     </row>
@@ -7772,16 +7794,16 @@
       <c r="A37" s="18">
         <v>352</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="54">
+      <c r="C37" s="41">
         <v>215</v>
       </c>
-      <c r="D37" s="54">
+      <c r="D37" s="41">
         <v>111</v>
       </c>
-      <c r="E37" s="54">
+      <c r="E37" s="41">
         <v>104</v>
       </c>
     </row>
@@ -7789,16 +7811,16 @@
       <c r="A38" s="18">
         <v>353</v>
       </c>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="52">
+      <c r="C38" s="39">
         <v>456</v>
       </c>
-      <c r="D38" s="52">
+      <c r="D38" s="39">
         <v>231</v>
       </c>
-      <c r="E38" s="52">
+      <c r="E38" s="39">
         <v>225</v>
       </c>
     </row>
@@ -7806,16 +7828,16 @@
       <c r="A39" s="18">
         <v>354</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="54">
+      <c r="C39" s="41">
         <v>21</v>
       </c>
-      <c r="D39" s="54">
+      <c r="D39" s="41">
         <v>8</v>
       </c>
-      <c r="E39" s="54">
+      <c r="E39" s="41">
         <v>13</v>
       </c>
     </row>
@@ -7823,16 +7845,16 @@
       <c r="A40" s="18">
         <v>355</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="52">
+      <c r="C40" s="39">
         <v>425</v>
       </c>
-      <c r="D40" s="52">
+      <c r="D40" s="39">
         <v>239</v>
       </c>
-      <c r="E40" s="52">
+      <c r="E40" s="39">
         <v>186</v>
       </c>
     </row>
@@ -7840,16 +7862,16 @@
       <c r="A41" s="18">
         <v>356</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="54">
+      <c r="C41" s="41">
         <v>82</v>
       </c>
-      <c r="D41" s="54">
+      <c r="D41" s="41">
         <v>45</v>
       </c>
-      <c r="E41" s="54">
+      <c r="E41" s="41">
         <v>37</v>
       </c>
     </row>
@@ -7857,16 +7879,16 @@
       <c r="A42" s="18">
         <v>357</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="52">
+      <c r="C42" s="39">
         <v>154</v>
       </c>
-      <c r="D42" s="52">
+      <c r="D42" s="39">
         <v>74</v>
       </c>
-      <c r="E42" s="52">
+      <c r="E42" s="39">
         <v>80</v>
       </c>
     </row>
@@ -7874,16 +7896,16 @@
       <c r="A43" s="18">
         <v>358</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="54">
+      <c r="C43" s="41">
         <v>179</v>
       </c>
-      <c r="D43" s="54">
+      <c r="D43" s="41">
         <v>97</v>
       </c>
-      <c r="E43" s="54">
+      <c r="E43" s="41">
         <v>82</v>
       </c>
     </row>
@@ -7891,16 +7913,16 @@
       <c r="A44" s="18">
         <v>359</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="52">
+      <c r="C44" s="39">
         <v>209</v>
       </c>
-      <c r="D44" s="52">
+      <c r="D44" s="39">
         <v>104</v>
       </c>
-      <c r="E44" s="52">
+      <c r="E44" s="39">
         <v>105</v>
       </c>
     </row>
@@ -7908,16 +7930,16 @@
       <c r="A45" s="18">
         <v>360</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="B45" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="54">
+      <c r="C45" s="41">
         <v>110</v>
       </c>
-      <c r="D45" s="54">
+      <c r="D45" s="41">
         <v>48</v>
       </c>
-      <c r="E45" s="54">
+      <c r="E45" s="41">
         <v>62</v>
       </c>
     </row>
@@ -7925,16 +7947,16 @@
       <c r="A46" s="18">
         <v>361</v>
       </c>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="52">
+      <c r="C46" s="39">
         <v>92</v>
       </c>
-      <c r="D46" s="52">
+      <c r="D46" s="39">
         <v>39</v>
       </c>
-      <c r="E46" s="52">
+      <c r="E46" s="39">
         <v>53</v>
       </c>
     </row>
@@ -7942,16 +7964,16 @@
       <c r="A47" s="34">
         <v>4</v>
       </c>
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="54">
+      <c r="C47" s="41">
         <v>3052</v>
       </c>
-      <c r="D47" s="54">
+      <c r="D47" s="41">
         <v>1594</v>
       </c>
-      <c r="E47" s="54">
+      <c r="E47" s="41">
         <v>1458</v>
       </c>
     </row>
@@ -7959,16 +7981,16 @@
       <c r="A48" s="18">
         <v>401</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="52">
+      <c r="C48" s="39">
         <v>154</v>
       </c>
-      <c r="D48" s="52">
+      <c r="D48" s="39">
         <v>90</v>
       </c>
-      <c r="E48" s="52">
+      <c r="E48" s="39">
         <v>64</v>
       </c>
     </row>
@@ -7976,16 +7998,16 @@
       <c r="A49" s="18">
         <v>402</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="54">
+      <c r="C49" s="41">
         <v>47</v>
       </c>
-      <c r="D49" s="54">
+      <c r="D49" s="41">
         <v>25</v>
       </c>
-      <c r="E49" s="54">
+      <c r="E49" s="41">
         <v>22</v>
       </c>
     </row>
@@ -7993,16 +8015,16 @@
       <c r="A50" s="18">
         <v>403</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C50" s="52">
+      <c r="C50" s="39">
         <v>239</v>
       </c>
-      <c r="D50" s="52">
+      <c r="D50" s="39">
         <v>119</v>
       </c>
-      <c r="E50" s="52">
+      <c r="E50" s="39">
         <v>120</v>
       </c>
     </row>
@@ -8010,16 +8032,16 @@
       <c r="A51" s="18">
         <v>404</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="54">
+      <c r="C51" s="41">
         <v>449</v>
       </c>
-      <c r="D51" s="54">
+      <c r="D51" s="41">
         <v>246</v>
       </c>
-      <c r="E51" s="54">
+      <c r="E51" s="41">
         <v>203</v>
       </c>
     </row>
@@ -8027,16 +8049,16 @@
       <c r="A52" s="18">
         <v>405</v>
       </c>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="C52" s="52">
+      <c r="C52" s="39">
         <v>182</v>
       </c>
-      <c r="D52" s="52">
+      <c r="D52" s="39">
         <v>113</v>
       </c>
-      <c r="E52" s="52">
+      <c r="E52" s="39">
         <v>69</v>
       </c>
     </row>
@@ -8044,16 +8066,16 @@
       <c r="A53" s="18">
         <v>451</v>
       </c>
-      <c r="B53" s="53" t="s">
+      <c r="B53" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="54">
+      <c r="C53" s="41">
         <v>69</v>
       </c>
-      <c r="D53" s="54">
+      <c r="D53" s="41">
         <v>32</v>
       </c>
-      <c r="E53" s="54">
+      <c r="E53" s="41">
         <v>37</v>
       </c>
     </row>
@@ -8061,16 +8083,16 @@
       <c r="A54" s="18">
         <v>452</v>
       </c>
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="52">
+      <c r="C54" s="39">
         <v>207</v>
       </c>
-      <c r="D54" s="52">
+      <c r="D54" s="39">
         <v>107</v>
       </c>
-      <c r="E54" s="52">
+      <c r="E54" s="39">
         <v>100</v>
       </c>
     </row>
@@ -8078,16 +8100,16 @@
       <c r="A55" s="18">
         <v>453</v>
       </c>
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="54">
+      <c r="C55" s="41">
         <v>92</v>
       </c>
-      <c r="D55" s="54">
+      <c r="D55" s="41">
         <v>46</v>
       </c>
-      <c r="E55" s="54">
+      <c r="E55" s="41">
         <v>46</v>
       </c>
     </row>
@@ -8095,16 +8117,16 @@
       <c r="A56" s="18">
         <v>454</v>
       </c>
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="52">
+      <c r="C56" s="39">
         <v>263</v>
       </c>
-      <c r="D56" s="52">
+      <c r="D56" s="39">
         <v>129</v>
       </c>
-      <c r="E56" s="52">
+      <c r="E56" s="39">
         <v>134</v>
       </c>
     </row>
@@ -8112,16 +8134,16 @@
       <c r="A57" s="18">
         <v>455</v>
       </c>
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="54">
+      <c r="C57" s="41">
         <v>80</v>
       </c>
-      <c r="D57" s="54">
+      <c r="D57" s="41">
         <v>37</v>
       </c>
-      <c r="E57" s="54">
+      <c r="E57" s="41">
         <v>43</v>
       </c>
     </row>
@@ -8129,16 +8151,16 @@
       <c r="A58" s="18">
         <v>456</v>
       </c>
-      <c r="B58" s="51" t="s">
+      <c r="B58" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="52">
+      <c r="C58" s="39">
         <v>312</v>
       </c>
-      <c r="D58" s="52">
+      <c r="D58" s="39">
         <v>163</v>
       </c>
-      <c r="E58" s="52">
+      <c r="E58" s="39">
         <v>149</v>
       </c>
     </row>
@@ -8146,16 +8168,16 @@
       <c r="A59" s="18">
         <v>457</v>
       </c>
-      <c r="B59" s="53" t="s">
+      <c r="B59" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="54">
+      <c r="C59" s="41">
         <v>131</v>
       </c>
-      <c r="D59" s="54">
+      <c r="D59" s="41">
         <v>64</v>
       </c>
-      <c r="E59" s="54">
+      <c r="E59" s="41">
         <v>67</v>
       </c>
     </row>
@@ -8163,16 +8185,16 @@
       <c r="A60" s="18">
         <v>458</v>
       </c>
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="52">
+      <c r="C60" s="39">
         <v>158</v>
       </c>
-      <c r="D60" s="52">
+      <c r="D60" s="39">
         <v>82</v>
       </c>
-      <c r="E60" s="52">
+      <c r="E60" s="39">
         <v>76</v>
       </c>
     </row>
@@ -8180,16 +8202,16 @@
       <c r="A61" s="18">
         <v>459</v>
       </c>
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="54">
+      <c r="C61" s="41">
         <v>259</v>
       </c>
-      <c r="D61" s="54">
+      <c r="D61" s="41">
         <v>126</v>
       </c>
-      <c r="E61" s="54">
+      <c r="E61" s="41">
         <v>133</v>
       </c>
     </row>
@@ -8197,16 +8219,16 @@
       <c r="A62" s="18">
         <v>460</v>
       </c>
-      <c r="B62" s="51" t="s">
+      <c r="B62" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="52">
+      <c r="C62" s="39">
         <v>292</v>
       </c>
-      <c r="D62" s="52">
+      <c r="D62" s="39">
         <v>154</v>
       </c>
-      <c r="E62" s="52">
+      <c r="E62" s="39">
         <v>138</v>
       </c>
     </row>
@@ -8214,16 +8236,16 @@
       <c r="A63" s="18">
         <v>461</v>
       </c>
-      <c r="B63" s="53" t="s">
+      <c r="B63" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="C63" s="54">
+      <c r="C63" s="41">
         <v>109</v>
       </c>
-      <c r="D63" s="54">
+      <c r="D63" s="41">
         <v>55</v>
       </c>
-      <c r="E63" s="54">
+      <c r="E63" s="41">
         <v>54</v>
       </c>
     </row>
@@ -8231,31 +8253,31 @@
       <c r="A64" s="18">
         <v>462</v>
       </c>
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="C64" s="52">
+      <c r="C64" s="39">
         <v>9</v>
       </c>
-      <c r="D64" s="52">
+      <c r="D64" s="39">
         <v>6</v>
       </c>
-      <c r="E64" s="52">
+      <c r="E64" s="39">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="34"/>
-      <c r="B65" s="49" t="s">
+      <c r="B65" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="35"/>
-      <c r="B66" s="49" t="s">
+      <c r="B66" s="36" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8268,14 +8290,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:F885"/>
   <sheetViews>
-    <sheetView topLeftCell="A851" workbookViewId="0">
-      <selection activeCell="A851" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -26969,13 +26989,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:E885"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E885"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -42028,4 +42048,3473 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle6"/>
+  <dimension ref="A1:E157"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="E106" sqref="B106:E157"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP(A2,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Braunschweig, Stadt"</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(A2,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03101</v>
+      </c>
+      <c r="E2" s="55">
+        <f>VLOOKUP(A2,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(A3,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Salzgitter, Stadt"</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(A3,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03102</v>
+      </c>
+      <c r="E3" s="55">
+        <f>VLOOKUP(A3,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(A4,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Wolfsburg, Stadt"</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(A4,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03103</v>
+      </c>
+      <c r="E4" s="55">
+        <f>VLOOKUP(A4,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>151</v>
+      </c>
+      <c r="B5" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(A5,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Gifhorn"</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(A5,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03151</v>
+      </c>
+      <c r="E5" s="55">
+        <f>VLOOKUP(A5,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>153</v>
+      </c>
+      <c r="B6" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP(A6,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Goslar"</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(A6,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03153</v>
+      </c>
+      <c r="E6" s="55">
+        <f>VLOOKUP(A6,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>154</v>
+      </c>
+      <c r="B7" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(A7,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Helmstedt"</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(A7,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03154</v>
+      </c>
+      <c r="E7" s="55">
+        <f>VLOOKUP(A7,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>155</v>
+      </c>
+      <c r="B8" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(A8,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Northeim"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(A8,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03155</v>
+      </c>
+      <c r="E8" s="55">
+        <f>VLOOKUP(A8,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>157</v>
+      </c>
+      <c r="B9" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(A9,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Peine"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(A9,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03157</v>
+      </c>
+      <c r="E9" s="55">
+        <f>VLOOKUP(A9,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>158</v>
+      </c>
+      <c r="B10" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C10" t="str">
+        <f>VLOOKUP(A10,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Wolfenbüttel"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(A10,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03158</v>
+      </c>
+      <c r="E10" s="55">
+        <f>VLOOKUP(A10,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>159</v>
+      </c>
+      <c r="B11" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C11" t="str">
+        <f>VLOOKUP(A11,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Göttingen"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>VLOOKUP(A11,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03159</v>
+      </c>
+      <c r="E11" s="55">
+        <f>VLOOKUP(A11,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C12" t="str">
+        <f>VLOOKUP(A12,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Statistische Region Braunschweig"</v>
+      </c>
+      <c r="D12" t="str">
+        <f>VLOOKUP(A12,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K031</v>
+      </c>
+      <c r="E12" s="55">
+        <f>VLOOKUP(A12,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>241</v>
+      </c>
+      <c r="B13" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C13" t="str">
+        <f>VLOOKUP(A13,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Hannover  Region"</v>
+      </c>
+      <c r="D13" t="str">
+        <f>VLOOKUP(A13,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03241</v>
+      </c>
+      <c r="E13" s="55">
+        <f>VLOOKUP(A13,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-881</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>241001</v>
+      </c>
+      <c r="B14" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C14" t="str">
+        <f>VLOOKUP(A14,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"dav. Hannover, Lhst."</v>
+      </c>
+      <c r="D14" t="str">
+        <f>VLOOKUP(A14,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03241001</v>
+      </c>
+      <c r="E14" s="55">
+        <f>VLOOKUP(A14,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-569</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>241999</v>
+      </c>
+      <c r="B15" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C15" t="str">
+        <f>VLOOKUP(A15,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"dav. Hannover, Umland"</v>
+      </c>
+      <c r="D15" t="str">
+        <f>VLOOKUP(A15,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03241999</v>
+      </c>
+      <c r="E15" s="55">
+        <f>VLOOKUP(A15,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>251</v>
+      </c>
+      <c r="B16" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C16" t="str">
+        <f>VLOOKUP(A16,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Diepholz"</v>
+      </c>
+      <c r="D16" t="str">
+        <f>VLOOKUP(A16,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03251</v>
+      </c>
+      <c r="E16" s="55">
+        <f>VLOOKUP(A16,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>252</v>
+      </c>
+      <c r="B17" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C17" t="str">
+        <f>VLOOKUP(A17,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Hameln-Pyrmont"</v>
+      </c>
+      <c r="D17" t="str">
+        <f>VLOOKUP(A17,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03252</v>
+      </c>
+      <c r="E17" s="55">
+        <f>VLOOKUP(A17,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>254</v>
+      </c>
+      <c r="B18" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C18" t="str">
+        <f>VLOOKUP(A18,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Hildesheim"</v>
+      </c>
+      <c r="D18" t="str">
+        <f>VLOOKUP(A18,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03254</v>
+      </c>
+      <c r="E18" s="55">
+        <f>VLOOKUP(A18,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>255</v>
+      </c>
+      <c r="B19" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C19" t="str">
+        <f>VLOOKUP(A19,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Holzminden"</v>
+      </c>
+      <c r="D19" t="str">
+        <f>VLOOKUP(A19,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03255</v>
+      </c>
+      <c r="E19" s="55">
+        <f>VLOOKUP(A19,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>256</v>
+      </c>
+      <c r="B20" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C20" t="str">
+        <f>VLOOKUP(A20,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Nienburg (Weser)"</v>
+      </c>
+      <c r="D20" t="str">
+        <f>VLOOKUP(A20,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03256</v>
+      </c>
+      <c r="E20" s="55">
+        <f>VLOOKUP(A20,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>257</v>
+      </c>
+      <c r="B21" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C21" t="str">
+        <f>VLOOKUP(A21,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Schaumburg"</v>
+      </c>
+      <c r="D21" t="str">
+        <f>VLOOKUP(A21,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03257</v>
+      </c>
+      <c r="E21" s="55">
+        <f>VLOOKUP(A21,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C22" t="str">
+        <f>VLOOKUP(A22,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Statistische Region Hannover"</v>
+      </c>
+      <c r="D22" t="str">
+        <f>VLOOKUP(A22,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K032</v>
+      </c>
+      <c r="E22" s="55">
+        <f>VLOOKUP(A22,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-1225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>351</v>
+      </c>
+      <c r="B23" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C23" t="str">
+        <f>VLOOKUP(A23,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Celle"</v>
+      </c>
+      <c r="D23" t="str">
+        <f>VLOOKUP(A23,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03351</v>
+      </c>
+      <c r="E23" s="55">
+        <f>VLOOKUP(A23,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>352</v>
+      </c>
+      <c r="B24" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C24" t="str">
+        <f>VLOOKUP(A24,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Cuxhaven"</v>
+      </c>
+      <c r="D24" t="str">
+        <f>VLOOKUP(A24,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03352</v>
+      </c>
+      <c r="E24" s="55">
+        <f>VLOOKUP(A24,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>353</v>
+      </c>
+      <c r="B25" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C25" t="str">
+        <f>VLOOKUP(A25,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Harburg"</v>
+      </c>
+      <c r="D25" t="str">
+        <f>VLOOKUP(A25,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03353</v>
+      </c>
+      <c r="E25" s="55">
+        <f>VLOOKUP(A25,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>354</v>
+      </c>
+      <c r="B26" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C26" t="str">
+        <f>VLOOKUP(A26,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Lüchow-Dannenberg"</v>
+      </c>
+      <c r="D26" t="str">
+        <f>VLOOKUP(A26,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03354</v>
+      </c>
+      <c r="E26" s="55">
+        <f>VLOOKUP(A26,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>355</v>
+      </c>
+      <c r="B27" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C27" t="str">
+        <f>VLOOKUP(A27,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Lüneburg"</v>
+      </c>
+      <c r="D27" t="str">
+        <f>VLOOKUP(A27,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03355</v>
+      </c>
+      <c r="E27" s="55">
+        <f>VLOOKUP(A27,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>356</v>
+      </c>
+      <c r="B28" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C28" t="str">
+        <f>VLOOKUP(A28,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Osterholz"</v>
+      </c>
+      <c r="D28" t="str">
+        <f>VLOOKUP(A28,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03356</v>
+      </c>
+      <c r="E28" s="55">
+        <f>VLOOKUP(A28,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>357</v>
+      </c>
+      <c r="B29" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C29" t="str">
+        <f>VLOOKUP(A29,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Rotenburg (Wümme)"</v>
+      </c>
+      <c r="D29" t="str">
+        <f>VLOOKUP(A29,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03357</v>
+      </c>
+      <c r="E29" s="55">
+        <f>VLOOKUP(A29,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>358</v>
+      </c>
+      <c r="B30" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C30" t="str">
+        <f>VLOOKUP(A30,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Heidekreis"</v>
+      </c>
+      <c r="D30" t="str">
+        <f>VLOOKUP(A30,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03358</v>
+      </c>
+      <c r="E30" s="55">
+        <f>VLOOKUP(A30,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>359</v>
+      </c>
+      <c r="B31" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C31" t="str">
+        <f>VLOOKUP(A31,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Stade"</v>
+      </c>
+      <c r="D31" t="str">
+        <f>VLOOKUP(A31,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03359</v>
+      </c>
+      <c r="E31" s="55">
+        <f>VLOOKUP(A31,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>360</v>
+      </c>
+      <c r="B32" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C32" t="str">
+        <f>VLOOKUP(A32,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Uelzen"</v>
+      </c>
+      <c r="D32" t="str">
+        <f>VLOOKUP(A32,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03360</v>
+      </c>
+      <c r="E32" s="55">
+        <f>VLOOKUP(A32,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>361</v>
+      </c>
+      <c r="B33" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C33" t="str">
+        <f>VLOOKUP(A33,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Verden"</v>
+      </c>
+      <c r="D33" t="str">
+        <f>VLOOKUP(A33,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03361</v>
+      </c>
+      <c r="E33" s="55">
+        <f>VLOOKUP(A33,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C34" t="str">
+        <f>VLOOKUP(A34,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Statistische Region Lüneburg"</v>
+      </c>
+      <c r="D34" t="str">
+        <f>VLOOKUP(A34,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K033</v>
+      </c>
+      <c r="E34" s="55">
+        <f>VLOOKUP(A34,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>401</v>
+      </c>
+      <c r="B35" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C35" t="str">
+        <f>VLOOKUP(A35,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Delmenhorst, Stadt"</v>
+      </c>
+      <c r="D35" t="str">
+        <f>VLOOKUP(A35,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03401</v>
+      </c>
+      <c r="E35" s="55">
+        <f>VLOOKUP(A35,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>402</v>
+      </c>
+      <c r="B36" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C36" t="str">
+        <f>VLOOKUP(A36,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Emden  Stadt"</v>
+      </c>
+      <c r="D36" t="str">
+        <f>VLOOKUP(A36,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03402</v>
+      </c>
+      <c r="E36" s="55">
+        <f>VLOOKUP(A36,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>403</v>
+      </c>
+      <c r="B37" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C37" t="str">
+        <f>VLOOKUP(A37,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Oldenburg(Oldb), Stadt"</v>
+      </c>
+      <c r="D37" t="str">
+        <f>VLOOKUP(A37,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03403</v>
+      </c>
+      <c r="E37" s="55">
+        <f>VLOOKUP(A37,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>404</v>
+      </c>
+      <c r="B38" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C38" t="str">
+        <f>VLOOKUP(A38,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Osnabrück, Stadt"</v>
+      </c>
+      <c r="D38" t="str">
+        <f>VLOOKUP(A38,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03404</v>
+      </c>
+      <c r="E38" s="55">
+        <f>VLOOKUP(A38,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>405</v>
+      </c>
+      <c r="B39" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C39" t="str">
+        <f>VLOOKUP(A39,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Wilhelmshaven, Stadt"</v>
+      </c>
+      <c r="D39" t="str">
+        <f>VLOOKUP(A39,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03405</v>
+      </c>
+      <c r="E39" s="55">
+        <f>VLOOKUP(A39,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>451</v>
+      </c>
+      <c r="B40" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C40" t="str">
+        <f>VLOOKUP(A40,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Ammerland"</v>
+      </c>
+      <c r="D40" t="str">
+        <f>VLOOKUP(A40,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03451</v>
+      </c>
+      <c r="E40" s="55">
+        <f>VLOOKUP(A40,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>452</v>
+      </c>
+      <c r="B41" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C41" t="str">
+        <f>VLOOKUP(A41,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Aurich"</v>
+      </c>
+      <c r="D41" t="str">
+        <f>VLOOKUP(A41,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03452</v>
+      </c>
+      <c r="E41" s="55">
+        <f>VLOOKUP(A41,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>453</v>
+      </c>
+      <c r="B42" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C42" t="str">
+        <f>VLOOKUP(A42,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Cloppenburg"</v>
+      </c>
+      <c r="D42" t="str">
+        <f>VLOOKUP(A42,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03453</v>
+      </c>
+      <c r="E42" s="55">
+        <f>VLOOKUP(A42,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>454</v>
+      </c>
+      <c r="B43" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C43" t="str">
+        <f>VLOOKUP(A43,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Emsland"</v>
+      </c>
+      <c r="D43" t="str">
+        <f>VLOOKUP(A43,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03454</v>
+      </c>
+      <c r="E43" s="55">
+        <f>VLOOKUP(A43,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>455</v>
+      </c>
+      <c r="B44" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C44" t="str">
+        <f>VLOOKUP(A44,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Friesland"</v>
+      </c>
+      <c r="D44" t="str">
+        <f>VLOOKUP(A44,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03455</v>
+      </c>
+      <c r="E44" s="55">
+        <f>VLOOKUP(A44,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>456</v>
+      </c>
+      <c r="B45" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C45" t="str">
+        <f>VLOOKUP(A45,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Grafschaft Bentheim"</v>
+      </c>
+      <c r="D45" t="str">
+        <f>VLOOKUP(A45,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03456</v>
+      </c>
+      <c r="E45" s="55">
+        <f>VLOOKUP(A45,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>457</v>
+      </c>
+      <c r="B46" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C46" t="str">
+        <f>VLOOKUP(A46,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Leer"</v>
+      </c>
+      <c r="D46" t="str">
+        <f>VLOOKUP(A46,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03457</v>
+      </c>
+      <c r="E46" s="55">
+        <f>VLOOKUP(A46,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>458</v>
+      </c>
+      <c r="B47" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C47" t="str">
+        <f>VLOOKUP(A47,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Oldenburg"</v>
+      </c>
+      <c r="D47" t="str">
+        <f>VLOOKUP(A47,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03458</v>
+      </c>
+      <c r="E47" s="55">
+        <f>VLOOKUP(A47,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>459</v>
+      </c>
+      <c r="B48" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C48" t="str">
+        <f>VLOOKUP(A48,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Osnabrück"</v>
+      </c>
+      <c r="D48" t="str">
+        <f>VLOOKUP(A48,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03459</v>
+      </c>
+      <c r="E48" s="55">
+        <f>VLOOKUP(A48,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>460</v>
+      </c>
+      <c r="B49" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C49" t="str">
+        <f>VLOOKUP(A49,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Vechta"</v>
+      </c>
+      <c r="D49" t="str">
+        <f>VLOOKUP(A49,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03460</v>
+      </c>
+      <c r="E49" s="55">
+        <f>VLOOKUP(A49,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>461</v>
+      </c>
+      <c r="B50" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C50" t="str">
+        <f>VLOOKUP(A50,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Wesermarsch"</v>
+      </c>
+      <c r="D50" t="str">
+        <f>VLOOKUP(A50,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03461</v>
+      </c>
+      <c r="E50" s="55">
+        <f>VLOOKUP(A50,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>462</v>
+      </c>
+      <c r="B51" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C51" t="str">
+        <f>VLOOKUP(A51,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Wittmund"</v>
+      </c>
+      <c r="D51" t="str">
+        <f>VLOOKUP(A51,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03462</v>
+      </c>
+      <c r="E51" s="55">
+        <f>VLOOKUP(A51,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C52" t="str">
+        <f>VLOOKUP(A52,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Statistische Region Weser-Ems"</v>
+      </c>
+      <c r="D52" t="str">
+        <f>VLOOKUP(A52,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K034</v>
+      </c>
+      <c r="E52" s="55">
+        <f>VLOOKUP(A52,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53" t="str">
+        <f>'2021_2-3-1'!$U$8</f>
+        <v>Veränderung aktuelles Jahr (2021) 
+zu 2005</v>
+      </c>
+      <c r="C53" t="str">
+        <f>VLOOKUP(A53,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Niedersachsen"</v>
+      </c>
+      <c r="D53" t="str">
+        <f>VLOOKUP(A53,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K030</v>
+      </c>
+      <c r="E53" s="55">
+        <f>VLOOKUP(A53,'2021_2-3-1'!$B$11:$W$62,20,FALSE)</f>
+        <v>-467</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>101</v>
+      </c>
+      <c r="B54" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C54" t="str">
+        <f>VLOOKUP(A54,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Braunschweig, Stadt"</v>
+      </c>
+      <c r="D54" t="str">
+        <f>VLOOKUP(A54,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03101</v>
+      </c>
+      <c r="E54" s="55">
+        <f>VLOOKUP(A54,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>102</v>
+      </c>
+      <c r="B55" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C55" t="str">
+        <f>VLOOKUP(A55,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Salzgitter, Stadt"</v>
+      </c>
+      <c r="D55" t="str">
+        <f>VLOOKUP(A55,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03102</v>
+      </c>
+      <c r="E55" s="55">
+        <f>VLOOKUP(A55,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>103</v>
+      </c>
+      <c r="B56" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C56" t="str">
+        <f>VLOOKUP(A56,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Wolfsburg, Stadt"</v>
+      </c>
+      <c r="D56" t="str">
+        <f>VLOOKUP(A56,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03103</v>
+      </c>
+      <c r="E56" s="55">
+        <f>VLOOKUP(A56,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>151</v>
+      </c>
+      <c r="B57" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C57" t="str">
+        <f>VLOOKUP(A57,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Gifhorn"</v>
+      </c>
+      <c r="D57" t="str">
+        <f>VLOOKUP(A57,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03151</v>
+      </c>
+      <c r="E57" s="55">
+        <f>VLOOKUP(A57,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>153</v>
+      </c>
+      <c r="B58" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C58" t="str">
+        <f>VLOOKUP(A58,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Goslar"</v>
+      </c>
+      <c r="D58" t="str">
+        <f>VLOOKUP(A58,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03153</v>
+      </c>
+      <c r="E58" s="55">
+        <f>VLOOKUP(A58,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>154</v>
+      </c>
+      <c r="B59" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C59" t="str">
+        <f>VLOOKUP(A59,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Helmstedt"</v>
+      </c>
+      <c r="D59" t="str">
+        <f>VLOOKUP(A59,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03154</v>
+      </c>
+      <c r="E59" s="55">
+        <f>VLOOKUP(A59,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>155</v>
+      </c>
+      <c r="B60" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C60" t="str">
+        <f>VLOOKUP(A60,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Northeim"</v>
+      </c>
+      <c r="D60" t="str">
+        <f>VLOOKUP(A60,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03155</v>
+      </c>
+      <c r="E60" s="55">
+        <f>VLOOKUP(A60,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>157</v>
+      </c>
+      <c r="B61" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C61" t="str">
+        <f>VLOOKUP(A61,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Peine"</v>
+      </c>
+      <c r="D61" t="str">
+        <f>VLOOKUP(A61,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03157</v>
+      </c>
+      <c r="E61" s="55">
+        <f>VLOOKUP(A61,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>158</v>
+      </c>
+      <c r="B62" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C62" t="str">
+        <f>VLOOKUP(A62,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Wolfenbüttel"</v>
+      </c>
+      <c r="D62" t="str">
+        <f>VLOOKUP(A62,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03158</v>
+      </c>
+      <c r="E62" s="55">
+        <f>VLOOKUP(A62,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>159</v>
+      </c>
+      <c r="B63" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C63" t="str">
+        <f>VLOOKUP(A63,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Göttingen"</v>
+      </c>
+      <c r="D63" t="str">
+        <f>VLOOKUP(A63,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03159</v>
+      </c>
+      <c r="E63" s="55">
+        <f>VLOOKUP(A63,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C64" t="str">
+        <f>VLOOKUP(A64,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Statistische Region Braunschweig"</v>
+      </c>
+      <c r="D64" t="str">
+        <f>VLOOKUP(A64,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K031</v>
+      </c>
+      <c r="E64" s="55">
+        <f>VLOOKUP(A64,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>241</v>
+      </c>
+      <c r="B65" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C65" t="str">
+        <f>VLOOKUP(A65,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Hannover  Region"</v>
+      </c>
+      <c r="D65" t="str">
+        <f>VLOOKUP(A65,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03241</v>
+      </c>
+      <c r="E65" s="55">
+        <f>VLOOKUP(A65,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>241001</v>
+      </c>
+      <c r="B66" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C66" t="str">
+        <f>VLOOKUP(A66,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"dav. Hannover, Lhst."</v>
+      </c>
+      <c r="D66" t="str">
+        <f>VLOOKUP(A66,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03241001</v>
+      </c>
+      <c r="E66" s="55">
+        <f>VLOOKUP(A66,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>-240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>241999</v>
+      </c>
+      <c r="B67" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C67" t="str">
+        <f>VLOOKUP(A67,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"dav. Hannover, Umland"</v>
+      </c>
+      <c r="D67" t="str">
+        <f>VLOOKUP(A67,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03241999</v>
+      </c>
+      <c r="E67" s="55">
+        <f>VLOOKUP(A67,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>251</v>
+      </c>
+      <c r="B68" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C68" t="str">
+        <f>VLOOKUP(A68,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Diepholz"</v>
+      </c>
+      <c r="D68" t="str">
+        <f>VLOOKUP(A68,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03251</v>
+      </c>
+      <c r="E68" s="55">
+        <f>VLOOKUP(A68,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>252</v>
+      </c>
+      <c r="B69" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C69" t="str">
+        <f>VLOOKUP(A69,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Hameln-Pyrmont"</v>
+      </c>
+      <c r="D69" t="str">
+        <f>VLOOKUP(A69,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03252</v>
+      </c>
+      <c r="E69" s="55">
+        <f>VLOOKUP(A69,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>254</v>
+      </c>
+      <c r="B70" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C70" t="str">
+        <f>VLOOKUP(A70,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Hildesheim"</v>
+      </c>
+      <c r="D70" t="str">
+        <f>VLOOKUP(A70,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03254</v>
+      </c>
+      <c r="E70" s="55">
+        <f>VLOOKUP(A70,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>255</v>
+      </c>
+      <c r="B71" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C71" t="str">
+        <f>VLOOKUP(A71,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Holzminden"</v>
+      </c>
+      <c r="D71" t="str">
+        <f>VLOOKUP(A71,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03255</v>
+      </c>
+      <c r="E71" s="55">
+        <f>VLOOKUP(A71,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>256</v>
+      </c>
+      <c r="B72" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C72" t="str">
+        <f>VLOOKUP(A72,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Nienburg (Weser)"</v>
+      </c>
+      <c r="D72" t="str">
+        <f>VLOOKUP(A72,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03256</v>
+      </c>
+      <c r="E72" s="55">
+        <f>VLOOKUP(A72,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>257</v>
+      </c>
+      <c r="B73" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C73" t="str">
+        <f>VLOOKUP(A73,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Schaumburg"</v>
+      </c>
+      <c r="D73" t="str">
+        <f>VLOOKUP(A73,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03257</v>
+      </c>
+      <c r="E73" s="55">
+        <f>VLOOKUP(A73,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C74" t="str">
+        <f>VLOOKUP(A74,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Statistische Region Hannover"</v>
+      </c>
+      <c r="D74" t="str">
+        <f>VLOOKUP(A74,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K032</v>
+      </c>
+      <c r="E74" s="55">
+        <f>VLOOKUP(A74,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>351</v>
+      </c>
+      <c r="B75" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C75" t="str">
+        <f>VLOOKUP(A75,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Celle"</v>
+      </c>
+      <c r="D75" t="str">
+        <f>VLOOKUP(A75,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03351</v>
+      </c>
+      <c r="E75" s="55">
+        <f>VLOOKUP(A75,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>352</v>
+      </c>
+      <c r="B76" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C76" t="str">
+        <f>VLOOKUP(A76,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Cuxhaven"</v>
+      </c>
+      <c r="D76" t="str">
+        <f>VLOOKUP(A76,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03352</v>
+      </c>
+      <c r="E76" s="55">
+        <f>VLOOKUP(A76,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>353</v>
+      </c>
+      <c r="B77" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C77" t="str">
+        <f>VLOOKUP(A77,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Harburg"</v>
+      </c>
+      <c r="D77" t="str">
+        <f>VLOOKUP(A77,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03353</v>
+      </c>
+      <c r="E77" s="55">
+        <f>VLOOKUP(A77,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>354</v>
+      </c>
+      <c r="B78" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C78" t="str">
+        <f>VLOOKUP(A78,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Lüchow-Dannenberg"</v>
+      </c>
+      <c r="D78" t="str">
+        <f>VLOOKUP(A78,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03354</v>
+      </c>
+      <c r="E78" s="55">
+        <f>VLOOKUP(A78,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>355</v>
+      </c>
+      <c r="B79" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C79" t="str">
+        <f>VLOOKUP(A79,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Lüneburg"</v>
+      </c>
+      <c r="D79" t="str">
+        <f>VLOOKUP(A79,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03355</v>
+      </c>
+      <c r="E79" s="55">
+        <f>VLOOKUP(A79,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>356</v>
+      </c>
+      <c r="B80" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C80" t="str">
+        <f>VLOOKUP(A80,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Osterholz"</v>
+      </c>
+      <c r="D80" t="str">
+        <f>VLOOKUP(A80,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03356</v>
+      </c>
+      <c r="E80" s="55">
+        <f>VLOOKUP(A80,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>357</v>
+      </c>
+      <c r="B81" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C81" t="str">
+        <f>VLOOKUP(A81,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Rotenburg (Wümme)"</v>
+      </c>
+      <c r="D81" t="str">
+        <f>VLOOKUP(A81,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03357</v>
+      </c>
+      <c r="E81" s="55">
+        <f>VLOOKUP(A81,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>358</v>
+      </c>
+      <c r="B82" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C82" t="str">
+        <f>VLOOKUP(A82,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Heidekreis"</v>
+      </c>
+      <c r="D82" t="str">
+        <f>VLOOKUP(A82,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03358</v>
+      </c>
+      <c r="E82" s="55">
+        <f>VLOOKUP(A82,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>359</v>
+      </c>
+      <c r="B83" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C83" t="str">
+        <f>VLOOKUP(A83,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Stade"</v>
+      </c>
+      <c r="D83" t="str">
+        <f>VLOOKUP(A83,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03359</v>
+      </c>
+      <c r="E83" s="55">
+        <f>VLOOKUP(A83,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>360</v>
+      </c>
+      <c r="B84" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C84" t="str">
+        <f>VLOOKUP(A84,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Uelzen"</v>
+      </c>
+      <c r="D84" t="str">
+        <f>VLOOKUP(A84,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03360</v>
+      </c>
+      <c r="E84" s="55">
+        <f>VLOOKUP(A84,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>361</v>
+      </c>
+      <c r="B85" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C85" t="str">
+        <f>VLOOKUP(A85,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Verden"</v>
+      </c>
+      <c r="D85" t="str">
+        <f>VLOOKUP(A85,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03361</v>
+      </c>
+      <c r="E85" s="55">
+        <f>VLOOKUP(A85,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C86" t="str">
+        <f>VLOOKUP(A86,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Statistische Region Lüneburg"</v>
+      </c>
+      <c r="D86" t="str">
+        <f>VLOOKUP(A86,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K033</v>
+      </c>
+      <c r="E86" s="55">
+        <f>VLOOKUP(A86,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>920</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>401</v>
+      </c>
+      <c r="B87" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C87" t="str">
+        <f>VLOOKUP(A87,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Delmenhorst, Stadt"</v>
+      </c>
+      <c r="D87" t="str">
+        <f>VLOOKUP(A87,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03401</v>
+      </c>
+      <c r="E87" s="55">
+        <f>VLOOKUP(A87,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>402</v>
+      </c>
+      <c r="B88" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C88" t="str">
+        <f>VLOOKUP(A88,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Emden  Stadt"</v>
+      </c>
+      <c r="D88" t="str">
+        <f>VLOOKUP(A88,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03402</v>
+      </c>
+      <c r="E88" s="55">
+        <f>VLOOKUP(A88,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>403</v>
+      </c>
+      <c r="B89" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C89" t="str">
+        <f>VLOOKUP(A89,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Oldenburg(Oldb), Stadt"</v>
+      </c>
+      <c r="D89" t="str">
+        <f>VLOOKUP(A89,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03403</v>
+      </c>
+      <c r="E89" s="55">
+        <f>VLOOKUP(A89,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>404</v>
+      </c>
+      <c r="B90" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C90" t="str">
+        <f>VLOOKUP(A90,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Osnabrück, Stadt"</v>
+      </c>
+      <c r="D90" t="str">
+        <f>VLOOKUP(A90,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03404</v>
+      </c>
+      <c r="E90" s="55">
+        <f>VLOOKUP(A90,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>405</v>
+      </c>
+      <c r="B91" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C91" t="str">
+        <f>VLOOKUP(A91,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Wilhelmshaven, Stadt"</v>
+      </c>
+      <c r="D91" t="str">
+        <f>VLOOKUP(A91,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03405</v>
+      </c>
+      <c r="E91" s="55">
+        <f>VLOOKUP(A91,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>451</v>
+      </c>
+      <c r="B92" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C92" t="str">
+        <f>VLOOKUP(A92,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Ammerland"</v>
+      </c>
+      <c r="D92" t="str">
+        <f>VLOOKUP(A92,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03451</v>
+      </c>
+      <c r="E92" s="55">
+        <f>VLOOKUP(A92,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>452</v>
+      </c>
+      <c r="B93" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C93" t="str">
+        <f>VLOOKUP(A93,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Aurich"</v>
+      </c>
+      <c r="D93" t="str">
+        <f>VLOOKUP(A93,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03452</v>
+      </c>
+      <c r="E93" s="55">
+        <f>VLOOKUP(A93,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>453</v>
+      </c>
+      <c r="B94" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C94" t="str">
+        <f>VLOOKUP(A94,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Cloppenburg"</v>
+      </c>
+      <c r="D94" t="str">
+        <f>VLOOKUP(A94,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03453</v>
+      </c>
+      <c r="E94" s="55">
+        <f>VLOOKUP(A94,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>454</v>
+      </c>
+      <c r="B95" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C95" t="str">
+        <f>VLOOKUP(A95,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Emsland"</v>
+      </c>
+      <c r="D95" t="str">
+        <f>VLOOKUP(A95,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03454</v>
+      </c>
+      <c r="E95" s="55">
+        <f>VLOOKUP(A95,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>455</v>
+      </c>
+      <c r="B96" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C96" t="str">
+        <f>VLOOKUP(A96,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Friesland"</v>
+      </c>
+      <c r="D96" t="str">
+        <f>VLOOKUP(A96,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03455</v>
+      </c>
+      <c r="E96" s="55">
+        <f>VLOOKUP(A96,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>456</v>
+      </c>
+      <c r="B97" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C97" t="str">
+        <f>VLOOKUP(A97,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Grafschaft Bentheim"</v>
+      </c>
+      <c r="D97" t="str">
+        <f>VLOOKUP(A97,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03456</v>
+      </c>
+      <c r="E97" s="55">
+        <f>VLOOKUP(A97,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>457</v>
+      </c>
+      <c r="B98" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C98" t="str">
+        <f>VLOOKUP(A98,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Leer"</v>
+      </c>
+      <c r="D98" t="str">
+        <f>VLOOKUP(A98,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03457</v>
+      </c>
+      <c r="E98" s="55">
+        <f>VLOOKUP(A98,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>458</v>
+      </c>
+      <c r="B99" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C99" t="str">
+        <f>VLOOKUP(A99,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Oldenburg"</v>
+      </c>
+      <c r="D99" t="str">
+        <f>VLOOKUP(A99,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03458</v>
+      </c>
+      <c r="E99" s="55">
+        <f>VLOOKUP(A99,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>459</v>
+      </c>
+      <c r="B100" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C100" t="str">
+        <f>VLOOKUP(A100,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Osnabrück"</v>
+      </c>
+      <c r="D100" t="str">
+        <f>VLOOKUP(A100,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03459</v>
+      </c>
+      <c r="E100" s="55">
+        <f>VLOOKUP(A100,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>460</v>
+      </c>
+      <c r="B101" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C101" t="str">
+        <f>VLOOKUP(A101,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Vechta"</v>
+      </c>
+      <c r="D101" t="str">
+        <f>VLOOKUP(A101,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03460</v>
+      </c>
+      <c r="E101" s="55">
+        <f>VLOOKUP(A101,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>461</v>
+      </c>
+      <c r="B102" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C102" t="str">
+        <f>VLOOKUP(A102,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Wesermarsch"</v>
+      </c>
+      <c r="D102" t="str">
+        <f>VLOOKUP(A102,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03461</v>
+      </c>
+      <c r="E102" s="55">
+        <f>VLOOKUP(A102,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>462</v>
+      </c>
+      <c r="B103" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C103" t="str">
+        <f>VLOOKUP(A103,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Wittmund"</v>
+      </c>
+      <c r="D103" t="str">
+        <f>VLOOKUP(A103,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03462</v>
+      </c>
+      <c r="E103" s="55">
+        <f>VLOOKUP(A103,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>4</v>
+      </c>
+      <c r="B104" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C104" t="str">
+        <f>VLOOKUP(A104,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Statistische Region Weser-Ems"</v>
+      </c>
+      <c r="D104" t="str">
+        <f>VLOOKUP(A104,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K034</v>
+      </c>
+      <c r="E104" s="55">
+        <f>VLOOKUP(A104,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>877</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105" t="str">
+        <f>'2021_2-3-1'!$V$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2010</v>
+      </c>
+      <c r="C105" t="str">
+        <f>VLOOKUP(A105,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Niedersachsen"</v>
+      </c>
+      <c r="D105" t="str">
+        <f>VLOOKUP(A105,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K030</v>
+      </c>
+      <c r="E105" s="55">
+        <f>VLOOKUP(A105,'2021_2-3-1'!$B$11:$W$62,21,FALSE)</f>
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>101</v>
+      </c>
+      <c r="B106" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C106" t="str">
+        <f>VLOOKUP(A106,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Braunschweig, Stadt"</v>
+      </c>
+      <c r="D106" t="str">
+        <f>VLOOKUP(A106,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03101</v>
+      </c>
+      <c r="E106" s="55">
+        <f>VLOOKUP(A106,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>102</v>
+      </c>
+      <c r="B107" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C107" t="str">
+        <f>VLOOKUP(A107,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Salzgitter, Stadt"</v>
+      </c>
+      <c r="D107" t="str">
+        <f>VLOOKUP(A107,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03102</v>
+      </c>
+      <c r="E107" s="55">
+        <f>VLOOKUP(A107,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>103</v>
+      </c>
+      <c r="B108" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C108" t="str">
+        <f>VLOOKUP(A108,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Wolfsburg, Stadt"</v>
+      </c>
+      <c r="D108" t="str">
+        <f>VLOOKUP(A108,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03103</v>
+      </c>
+      <c r="E108" s="55">
+        <f>VLOOKUP(A108,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>151</v>
+      </c>
+      <c r="B109" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C109" t="str">
+        <f>VLOOKUP(A109,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Gifhorn"</v>
+      </c>
+      <c r="D109" t="str">
+        <f>VLOOKUP(A109,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03151</v>
+      </c>
+      <c r="E109" s="55">
+        <f>VLOOKUP(A109,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>153</v>
+      </c>
+      <c r="B110" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C110" t="str">
+        <f>VLOOKUP(A110,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Goslar"</v>
+      </c>
+      <c r="D110" t="str">
+        <f>VLOOKUP(A110,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03153</v>
+      </c>
+      <c r="E110" s="55">
+        <f>VLOOKUP(A110,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>154</v>
+      </c>
+      <c r="B111" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C111" t="str">
+        <f>VLOOKUP(A111,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Helmstedt"</v>
+      </c>
+      <c r="D111" t="str">
+        <f>VLOOKUP(A111,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03154</v>
+      </c>
+      <c r="E111" s="55">
+        <f>VLOOKUP(A111,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>155</v>
+      </c>
+      <c r="B112" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C112" t="str">
+        <f>VLOOKUP(A112,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Northeim"</v>
+      </c>
+      <c r="D112" t="str">
+        <f>VLOOKUP(A112,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03155</v>
+      </c>
+      <c r="E112" s="55">
+        <f>VLOOKUP(A112,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>157</v>
+      </c>
+      <c r="B113" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C113" t="str">
+        <f>VLOOKUP(A113,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Peine"</v>
+      </c>
+      <c r="D113" t="str">
+        <f>VLOOKUP(A113,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03157</v>
+      </c>
+      <c r="E113" s="55">
+        <f>VLOOKUP(A113,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>158</v>
+      </c>
+      <c r="B114" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C114" t="str">
+        <f>VLOOKUP(A114,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Wolfenbüttel"</v>
+      </c>
+      <c r="D114" t="str">
+        <f>VLOOKUP(A114,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03158</v>
+      </c>
+      <c r="E114" s="55">
+        <f>VLOOKUP(A114,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>159</v>
+      </c>
+      <c r="B115" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C115" t="str">
+        <f>VLOOKUP(A115,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Göttingen"</v>
+      </c>
+      <c r="D115" t="str">
+        <f>VLOOKUP(A115,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03159</v>
+      </c>
+      <c r="E115" s="55">
+        <f>VLOOKUP(A115,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C116" t="str">
+        <f>VLOOKUP(A116,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Statistische Region Braunschweig"</v>
+      </c>
+      <c r="D116" t="str">
+        <f>VLOOKUP(A116,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K031</v>
+      </c>
+      <c r="E116" s="55">
+        <f>VLOOKUP(A116,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>241</v>
+      </c>
+      <c r="B117" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C117" t="str">
+        <f>VLOOKUP(A117,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Hannover  Region"</v>
+      </c>
+      <c r="D117" t="str">
+        <f>VLOOKUP(A117,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03241</v>
+      </c>
+      <c r="E117" s="55">
+        <f>VLOOKUP(A117,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>241001</v>
+      </c>
+      <c r="B118" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C118" t="str">
+        <f>VLOOKUP(A118,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"dav. Hannover, Lhst."</v>
+      </c>
+      <c r="D118" t="str">
+        <f>VLOOKUP(A118,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03241001</v>
+      </c>
+      <c r="E118" s="55">
+        <f>VLOOKUP(A118,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>241999</v>
+      </c>
+      <c r="B119" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C119" t="str">
+        <f>VLOOKUP(A119,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"dav. Hannover, Umland"</v>
+      </c>
+      <c r="D119" t="str">
+        <f>VLOOKUP(A119,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03241999</v>
+      </c>
+      <c r="E119" s="55">
+        <f>VLOOKUP(A119,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>251</v>
+      </c>
+      <c r="B120" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C120" t="str">
+        <f>VLOOKUP(A120,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Diepholz"</v>
+      </c>
+      <c r="D120" t="str">
+        <f>VLOOKUP(A120,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03251</v>
+      </c>
+      <c r="E120" s="55">
+        <f>VLOOKUP(A120,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>252</v>
+      </c>
+      <c r="B121" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C121" t="str">
+        <f>VLOOKUP(A121,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Hameln-Pyrmont"</v>
+      </c>
+      <c r="D121" t="str">
+        <f>VLOOKUP(A121,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03252</v>
+      </c>
+      <c r="E121" s="55">
+        <f>VLOOKUP(A121,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>254</v>
+      </c>
+      <c r="B122" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C122" t="str">
+        <f>VLOOKUP(A122,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Hildesheim"</v>
+      </c>
+      <c r="D122" t="str">
+        <f>VLOOKUP(A122,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03254</v>
+      </c>
+      <c r="E122" s="55">
+        <f>VLOOKUP(A122,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>255</v>
+      </c>
+      <c r="B123" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C123" t="str">
+        <f>VLOOKUP(A123,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Holzminden"</v>
+      </c>
+      <c r="D123" t="str">
+        <f>VLOOKUP(A123,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03255</v>
+      </c>
+      <c r="E123" s="55">
+        <f>VLOOKUP(A123,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>256</v>
+      </c>
+      <c r="B124" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C124" t="str">
+        <f>VLOOKUP(A124,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Nienburg (Weser)"</v>
+      </c>
+      <c r="D124" t="str">
+        <f>VLOOKUP(A124,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03256</v>
+      </c>
+      <c r="E124" s="55">
+        <f>VLOOKUP(A124,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>257</v>
+      </c>
+      <c r="B125" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C125" t="str">
+        <f>VLOOKUP(A125,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Schaumburg"</v>
+      </c>
+      <c r="D125" t="str">
+        <f>VLOOKUP(A125,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03257</v>
+      </c>
+      <c r="E125" s="55">
+        <f>VLOOKUP(A125,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C126" t="str">
+        <f>VLOOKUP(A126,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Statistische Region Hannover"</v>
+      </c>
+      <c r="D126" t="str">
+        <f>VLOOKUP(A126,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K032</v>
+      </c>
+      <c r="E126" s="55">
+        <f>VLOOKUP(A126,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>351</v>
+      </c>
+      <c r="B127" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C127" t="str">
+        <f>VLOOKUP(A127,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Celle"</v>
+      </c>
+      <c r="D127" t="str">
+        <f>VLOOKUP(A127,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03351</v>
+      </c>
+      <c r="E127" s="55">
+        <f>VLOOKUP(A127,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>-89</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>352</v>
+      </c>
+      <c r="B128" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C128" t="str">
+        <f>VLOOKUP(A128,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Cuxhaven"</v>
+      </c>
+      <c r="D128" t="str">
+        <f>VLOOKUP(A128,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03352</v>
+      </c>
+      <c r="E128" s="55">
+        <f>VLOOKUP(A128,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>353</v>
+      </c>
+      <c r="B129" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C129" t="str">
+        <f>VLOOKUP(A129,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Harburg"</v>
+      </c>
+      <c r="D129" t="str">
+        <f>VLOOKUP(A129,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03353</v>
+      </c>
+      <c r="E129" s="55">
+        <f>VLOOKUP(A129,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>354</v>
+      </c>
+      <c r="B130" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C130" t="str">
+        <f>VLOOKUP(A130,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Lüchow-Dannenberg"</v>
+      </c>
+      <c r="D130" t="str">
+        <f>VLOOKUP(A130,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03354</v>
+      </c>
+      <c r="E130" s="55">
+        <f>VLOOKUP(A130,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>355</v>
+      </c>
+      <c r="B131" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C131" t="str">
+        <f>VLOOKUP(A131,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Lüneburg"</v>
+      </c>
+      <c r="D131" t="str">
+        <f>VLOOKUP(A131,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03355</v>
+      </c>
+      <c r="E131" s="55">
+        <f>VLOOKUP(A131,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>356</v>
+      </c>
+      <c r="B132" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C132" t="str">
+        <f>VLOOKUP(A132,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Osterholz"</v>
+      </c>
+      <c r="D132" t="str">
+        <f>VLOOKUP(A132,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03356</v>
+      </c>
+      <c r="E132" s="55">
+        <f>VLOOKUP(A132,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>357</v>
+      </c>
+      <c r="B133" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C133" t="str">
+        <f>VLOOKUP(A133,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Rotenburg (Wümme)"</v>
+      </c>
+      <c r="D133" t="str">
+        <f>VLOOKUP(A133,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03357</v>
+      </c>
+      <c r="E133" s="55">
+        <f>VLOOKUP(A133,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>358</v>
+      </c>
+      <c r="B134" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C134" t="str">
+        <f>VLOOKUP(A134,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Heidekreis"</v>
+      </c>
+      <c r="D134" t="str">
+        <f>VLOOKUP(A134,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03358</v>
+      </c>
+      <c r="E134" s="55">
+        <f>VLOOKUP(A134,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>359</v>
+      </c>
+      <c r="B135" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C135" t="str">
+        <f>VLOOKUP(A135,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Stade"</v>
+      </c>
+      <c r="D135" t="str">
+        <f>VLOOKUP(A135,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03359</v>
+      </c>
+      <c r="E135" s="55">
+        <f>VLOOKUP(A135,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>360</v>
+      </c>
+      <c r="B136" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C136" t="str">
+        <f>VLOOKUP(A136,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Uelzen"</v>
+      </c>
+      <c r="D136" t="str">
+        <f>VLOOKUP(A136,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03360</v>
+      </c>
+      <c r="E136" s="55">
+        <f>VLOOKUP(A136,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>361</v>
+      </c>
+      <c r="B137" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C137" t="str">
+        <f>VLOOKUP(A137,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Verden"</v>
+      </c>
+      <c r="D137" t="str">
+        <f>VLOOKUP(A137,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03361</v>
+      </c>
+      <c r="E137" s="55">
+        <f>VLOOKUP(A137,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>3</v>
+      </c>
+      <c r="B138" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C138" t="str">
+        <f>VLOOKUP(A138,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Statistische Region Lüneburg"</v>
+      </c>
+      <c r="D138" t="str">
+        <f>VLOOKUP(A138,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K033</v>
+      </c>
+      <c r="E138" s="55">
+        <f>VLOOKUP(A138,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>401</v>
+      </c>
+      <c r="B139" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C139" t="str">
+        <f>VLOOKUP(A139,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Delmenhorst, Stadt"</v>
+      </c>
+      <c r="D139" t="str">
+        <f>VLOOKUP(A139,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03401</v>
+      </c>
+      <c r="E139" s="55">
+        <f>VLOOKUP(A139,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>402</v>
+      </c>
+      <c r="B140" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C140" t="str">
+        <f>VLOOKUP(A140,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Emden  Stadt"</v>
+      </c>
+      <c r="D140" t="str">
+        <f>VLOOKUP(A140,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03402</v>
+      </c>
+      <c r="E140" s="55">
+        <f>VLOOKUP(A140,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>403</v>
+      </c>
+      <c r="B141" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C141" t="str">
+        <f>VLOOKUP(A141,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Oldenburg(Oldb), Stadt"</v>
+      </c>
+      <c r="D141" t="str">
+        <f>VLOOKUP(A141,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03403</v>
+      </c>
+      <c r="E141" s="55">
+        <f>VLOOKUP(A141,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>404</v>
+      </c>
+      <c r="B142" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C142" t="str">
+        <f>VLOOKUP(A142,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Osnabrück, Stadt"</v>
+      </c>
+      <c r="D142" t="str">
+        <f>VLOOKUP(A142,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03404</v>
+      </c>
+      <c r="E142" s="55">
+        <f>VLOOKUP(A142,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>405</v>
+      </c>
+      <c r="B143" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C143" t="str">
+        <f>VLOOKUP(A143,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Wilhelmshaven, Stadt"</v>
+      </c>
+      <c r="D143" t="str">
+        <f>VLOOKUP(A143,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03405</v>
+      </c>
+      <c r="E143" s="55">
+        <f>VLOOKUP(A143,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>451</v>
+      </c>
+      <c r="B144" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C144" t="str">
+        <f>VLOOKUP(A144,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Ammerland"</v>
+      </c>
+      <c r="D144" t="str">
+        <f>VLOOKUP(A144,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03451</v>
+      </c>
+      <c r="E144" s="55">
+        <f>VLOOKUP(A144,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>452</v>
+      </c>
+      <c r="B145" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C145" t="str">
+        <f>VLOOKUP(A145,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Aurich"</v>
+      </c>
+      <c r="D145" t="str">
+        <f>VLOOKUP(A145,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03452</v>
+      </c>
+      <c r="E145" s="55">
+        <f>VLOOKUP(A145,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>453</v>
+      </c>
+      <c r="B146" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C146" t="str">
+        <f>VLOOKUP(A146,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Cloppenburg"</v>
+      </c>
+      <c r="D146" t="str">
+        <f>VLOOKUP(A146,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03453</v>
+      </c>
+      <c r="E146" s="55">
+        <f>VLOOKUP(A146,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>454</v>
+      </c>
+      <c r="B147" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C147" t="str">
+        <f>VLOOKUP(A147,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Emsland"</v>
+      </c>
+      <c r="D147" t="str">
+        <f>VLOOKUP(A147,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03454</v>
+      </c>
+      <c r="E147" s="55">
+        <f>VLOOKUP(A147,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>455</v>
+      </c>
+      <c r="B148" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C148" t="str">
+        <f>VLOOKUP(A148,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Friesland"</v>
+      </c>
+      <c r="D148" t="str">
+        <f>VLOOKUP(A148,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03455</v>
+      </c>
+      <c r="E148" s="55">
+        <f>VLOOKUP(A148,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>456</v>
+      </c>
+      <c r="B149" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C149" t="str">
+        <f>VLOOKUP(A149,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Grafschaft Bentheim"</v>
+      </c>
+      <c r="D149" t="str">
+        <f>VLOOKUP(A149,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03456</v>
+      </c>
+      <c r="E149" s="55">
+        <f>VLOOKUP(A149,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>457</v>
+      </c>
+      <c r="B150" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C150" t="str">
+        <f>VLOOKUP(A150,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Leer"</v>
+      </c>
+      <c r="D150" t="str">
+        <f>VLOOKUP(A150,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03457</v>
+      </c>
+      <c r="E150" s="55">
+        <f>VLOOKUP(A150,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>458</v>
+      </c>
+      <c r="B151" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C151" t="str">
+        <f>VLOOKUP(A151,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Oldenburg"</v>
+      </c>
+      <c r="D151" t="str">
+        <f>VLOOKUP(A151,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03458</v>
+      </c>
+      <c r="E151" s="55">
+        <f>VLOOKUP(A151,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>459</v>
+      </c>
+      <c r="B152" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C152" t="str">
+        <f>VLOOKUP(A152,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Osnabrück"</v>
+      </c>
+      <c r="D152" t="str">
+        <f>VLOOKUP(A152,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03459</v>
+      </c>
+      <c r="E152" s="55">
+        <f>VLOOKUP(A152,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>460</v>
+      </c>
+      <c r="B153" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C153" t="str">
+        <f>VLOOKUP(A153,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Vechta"</v>
+      </c>
+      <c r="D153" t="str">
+        <f>VLOOKUP(A153,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03460</v>
+      </c>
+      <c r="E153" s="55">
+        <f>VLOOKUP(A153,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>461</v>
+      </c>
+      <c r="B154" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C154" t="str">
+        <f>VLOOKUP(A154,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Wesermarsch"</v>
+      </c>
+      <c r="D154" t="str">
+        <f>VLOOKUP(A154,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03461</v>
+      </c>
+      <c r="E154" s="55">
+        <f>VLOOKUP(A154,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>462</v>
+      </c>
+      <c r="B155" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C155" t="str">
+        <f>VLOOKUP(A155,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Wittmund"</v>
+      </c>
+      <c r="D155" t="str">
+        <f>VLOOKUP(A155,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K03462</v>
+      </c>
+      <c r="E155" s="55">
+        <f>VLOOKUP(A155,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>4</v>
+      </c>
+      <c r="B156" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C156" t="str">
+        <f>VLOOKUP(A156,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Statistische Region Weser-Ems"</v>
+      </c>
+      <c r="D156" t="str">
+        <f>VLOOKUP(A156,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K034</v>
+      </c>
+      <c r="E156" s="55">
+        <f>VLOOKUP(A156,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>686</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>0</v>
+      </c>
+      <c r="B157" t="str">
+        <f>'2021_2-3-1'!$W$8</f>
+        <v>Veränderung aktuelles Jahr (2021)
+zu 2020</v>
+      </c>
+      <c r="C157" t="str">
+        <f>VLOOKUP(A157,'2021_2-3-1_CSV_Export'!$A$1:$C$53,3,FALSE)</f>
+        <v>"Niedersachsen"</v>
+      </c>
+      <c r="D157" t="str">
+        <f>VLOOKUP(A157,'2021_2-3-1_CSV_Export'!$A$1:$D$53,4,FALSE)</f>
+        <v>K030</v>
+      </c>
+      <c r="E157" s="55">
+        <f>VLOOKUP(A157,'2021_2-3-1'!$B$11:$W$62,22,FALSE)</f>
+        <v>1541</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>